--- a/medicine/Psychotrope/Lyons_Tea/Lyons_Tea.xlsx
+++ b/medicine/Psychotrope/Lyons_Tea/Lyons_Tea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">J. Lyons 1 Company Limited est une société britannique de thé, filiale d'Unilever[1]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">J. Lyons 1 Company Limited est une société britannique de thé, filiale d'Unilever
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille J. Lyons fonde Lyons Tea en 1902, dans le quartier de Christchurch, à Dublin. En 1932, Lyons Tea déménage de Christchurch à Marlborough Street, toujours à Dublin. En 1963, elle déménage à Goldenbridge, toujours dans Dublin[2].
-À la fin des années 1970, Lyons Tea se met à produire des sachets de thé ronds. La transition rencontre un grand succès et dans cette décennie, Lyons compte plus de 65 % de part de marché en Irlande[2]. 
-En 1996, Unilever achète Lyons Tea[2].
-En avril 2004, Lyons commence à utiliser des sachets pyramidaux[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille J. Lyons fonde Lyons Tea en 1902, dans le quartier de Christchurch, à Dublin. En 1932, Lyons Tea déménage de Christchurch à Marlborough Street, toujours à Dublin. En 1963, elle déménage à Goldenbridge, toujours dans Dublin.
+À la fin des années 1970, Lyons Tea se met à produire des sachets de thé ronds. La transition rencontre un grand succès et dans cette décennie, Lyons compte plus de 65 % de part de marché en Irlande. 
+En 1996, Unilever achète Lyons Tea.
+En avril 2004, Lyons commence à utiliser des sachets pyramidaux.
 </t>
         </is>
       </c>
